--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Anxa1-Fpr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Anxa1-Fpr1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.24752933333333</v>
+        <v>17.81824933333333</v>
       </c>
       <c r="H2">
-        <v>150.742588</v>
+        <v>53.454748</v>
       </c>
       <c r="I2">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147032</v>
       </c>
       <c r="J2">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147034</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>13.69437566666667</v>
+        <v>1.471908333333333</v>
       </c>
       <c r="N2">
-        <v>41.083127</v>
+        <v>4.415725</v>
       </c>
       <c r="O2">
-        <v>0.6464706592402051</v>
+        <v>0.2507683239665115</v>
       </c>
       <c r="P2">
-        <v>0.6464706592402053</v>
+        <v>0.2507683239665115</v>
       </c>
       <c r="Q2">
-        <v>688.1085430125195</v>
+        <v>26.22682967914445</v>
       </c>
       <c r="R2">
-        <v>6192.976887112676</v>
+        <v>236.0414671123</v>
       </c>
       <c r="S2">
-        <v>0.08369236771437132</v>
+        <v>0.0129902486414241</v>
       </c>
       <c r="T2">
-        <v>0.08369236771437134</v>
+        <v>0.01299024864142411</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.24752933333333</v>
+        <v>17.81824933333333</v>
       </c>
       <c r="H3">
-        <v>150.742588</v>
+        <v>53.454748</v>
       </c>
       <c r="I3">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147032</v>
       </c>
       <c r="J3">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147034</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,25 +620,25 @@
         <v>2.346919</v>
       </c>
       <c r="N3">
-        <v>7.040757</v>
+        <v>7.040756999999999</v>
       </c>
       <c r="O3">
-        <v>0.1107910510156661</v>
+        <v>0.3998434758381655</v>
       </c>
       <c r="P3">
-        <v>0.1107910510156661</v>
+        <v>0.3998434758381655</v>
       </c>
       <c r="Q3">
-        <v>117.9268812954573</v>
+        <v>41.81798790713733</v>
       </c>
       <c r="R3">
-        <v>1061.341931659116</v>
+        <v>376.361891164236</v>
       </c>
       <c r="S3">
-        <v>0.01434305679388849</v>
+        <v>0.02071260870046192</v>
       </c>
       <c r="T3">
-        <v>0.0143430567938885</v>
+        <v>0.02071260870046193</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.24752933333333</v>
+        <v>17.81824933333333</v>
       </c>
       <c r="H4">
-        <v>150.742588</v>
+        <v>53.454748</v>
       </c>
       <c r="I4">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147032</v>
       </c>
       <c r="J4">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147034</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.330408333333333</v>
+        <v>0.8927443333333333</v>
       </c>
       <c r="N4">
-        <v>3.991225</v>
+        <v>2.678233</v>
       </c>
       <c r="O4">
-        <v>0.06280461214468869</v>
+        <v>0.152096428242656</v>
       </c>
       <c r="P4">
-        <v>0.06280461214468869</v>
+        <v>0.1520964282426559</v>
       </c>
       <c r="Q4">
-        <v>66.84973175447777</v>
+        <v>15.90714112225378</v>
       </c>
       <c r="R4">
-        <v>601.6475857902999</v>
+        <v>143.164270100284</v>
       </c>
       <c r="S4">
-        <v>0.008130711918077503</v>
+        <v>0.007878867590184441</v>
       </c>
       <c r="T4">
-        <v>0.008130711918077503</v>
+        <v>0.007878867590184442</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.24752933333333</v>
+        <v>17.81824933333333</v>
       </c>
       <c r="H5">
-        <v>150.742588</v>
+        <v>53.454748</v>
       </c>
       <c r="I5">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147032</v>
       </c>
       <c r="J5">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147034</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.811587333333334</v>
+        <v>1.158022666666667</v>
       </c>
       <c r="N5">
-        <v>11.434762</v>
+        <v>3.474068</v>
       </c>
       <c r="O5">
-        <v>0.1799336775994399</v>
+        <v>0.1972917719526671</v>
       </c>
       <c r="P5">
-        <v>0.17993367759944</v>
+        <v>0.197291771952667</v>
       </c>
       <c r="Q5">
-        <v>191.5228463382284</v>
+        <v>20.63393660831822</v>
       </c>
       <c r="R5">
-        <v>1723.705617044056</v>
+        <v>185.705429474864</v>
       </c>
       <c r="S5">
-        <v>0.02329429076881903</v>
+        <v>0.01022006739939986</v>
       </c>
       <c r="T5">
-        <v>0.02329429076881904</v>
+        <v>0.01022006739939986</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>454.26828</v>
       </c>
       <c r="I6">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="J6">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>13.69437566666667</v>
+        <v>1.471908333333333</v>
       </c>
       <c r="N6">
-        <v>41.083127</v>
+        <v>4.415725</v>
       </c>
       <c r="O6">
-        <v>0.6464706592402051</v>
+        <v>0.2507683239665115</v>
       </c>
       <c r="P6">
-        <v>0.6464706592402053</v>
+        <v>0.2507683239665115</v>
       </c>
       <c r="Q6">
-        <v>2073.640159923507</v>
+        <v>222.8804223003334</v>
       </c>
       <c r="R6">
-        <v>18662.76143931156</v>
+        <v>2005.923800703</v>
       </c>
       <c r="S6">
-        <v>0.2522099987478986</v>
+        <v>0.1103935221453493</v>
       </c>
       <c r="T6">
-        <v>0.2522099987478987</v>
+        <v>0.1103935221453493</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>454.26828</v>
       </c>
       <c r="I7">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="J7">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,25 +868,25 @@
         <v>2.346919</v>
       </c>
       <c r="N7">
-        <v>7.040757</v>
+        <v>7.040756999999999</v>
       </c>
       <c r="O7">
-        <v>0.1107910510156661</v>
+        <v>0.3998434758381655</v>
       </c>
       <c r="P7">
-        <v>0.1107910510156661</v>
+        <v>0.3998434758381655</v>
       </c>
       <c r="Q7">
-        <v>355.3769524764401</v>
+        <v>355.37695247644</v>
       </c>
       <c r="R7">
         <v>3198.39257228796</v>
       </c>
       <c r="S7">
-        <v>0.04322332411927306</v>
+        <v>0.1760195582377804</v>
       </c>
       <c r="T7">
-        <v>0.04322332411927307</v>
+        <v>0.1760195582377804</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>454.26828</v>
       </c>
       <c r="I8">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="J8">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.330408333333333</v>
+        <v>0.8927443333333333</v>
       </c>
       <c r="N8">
-        <v>3.991225</v>
+        <v>2.678233</v>
       </c>
       <c r="O8">
-        <v>0.06280461214468869</v>
+        <v>0.152096428242656</v>
       </c>
       <c r="P8">
-        <v>0.06280461214468869</v>
+        <v>0.1520964282426559</v>
       </c>
       <c r="Q8">
-        <v>201.4541017603334</v>
+        <v>135.1818109276933</v>
       </c>
       <c r="R8">
-        <v>1813.086915843</v>
+        <v>1216.63629834924</v>
       </c>
       <c r="S8">
-        <v>0.02450219654050632</v>
+        <v>0.06695606587726935</v>
       </c>
       <c r="T8">
-        <v>0.02450219654050631</v>
+        <v>0.06695606587726934</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>454.26828</v>
       </c>
       <c r="I9">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="J9">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.811587333333334</v>
+        <v>1.158022666666667</v>
       </c>
       <c r="N9">
-        <v>11.434762</v>
+        <v>3.474068</v>
       </c>
       <c r="O9">
-        <v>0.1799336775994399</v>
+        <v>0.1972917719526671</v>
       </c>
       <c r="P9">
-        <v>0.17993367759944</v>
+        <v>0.197291771952667</v>
       </c>
       <c r="Q9">
-        <v>577.1610739943734</v>
+        <v>175.3509883292267</v>
       </c>
       <c r="R9">
-        <v>5194.449665949361</v>
+        <v>1578.15889496304</v>
       </c>
       <c r="S9">
-        <v>0.07019819376705475</v>
+        <v>0.08685201245377583</v>
       </c>
       <c r="T9">
-        <v>0.07019819376705476</v>
+        <v>0.08685201245377581</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>101.3126446666667</v>
+        <v>100.6958183333333</v>
       </c>
       <c r="H10">
-        <v>303.937934</v>
+        <v>302.087455</v>
       </c>
       <c r="I10">
-        <v>0.261027326772798</v>
+        <v>0.29274614875843</v>
       </c>
       <c r="J10">
-        <v>0.2610273267727979</v>
+        <v>0.2927461487584301</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>13.69437566666667</v>
+        <v>1.471908333333333</v>
       </c>
       <c r="N10">
-        <v>41.083127</v>
+        <v>4.415725</v>
       </c>
       <c r="O10">
-        <v>0.6464706592402051</v>
+        <v>0.2507683239665115</v>
       </c>
       <c r="P10">
-        <v>0.6464706592402053</v>
+        <v>0.2507683239665115</v>
       </c>
       <c r="Q10">
-        <v>1387.413415848847</v>
+        <v>148.2150141366528</v>
       </c>
       <c r="R10">
-        <v>12486.72074263962</v>
+        <v>1333.935127229875</v>
       </c>
       <c r="S10">
-        <v>0.1687465080185191</v>
+        <v>0.07341146107180255</v>
       </c>
       <c r="T10">
-        <v>0.1687465080185192</v>
+        <v>0.07341146107180256</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>101.3126446666667</v>
+        <v>100.6958183333333</v>
       </c>
       <c r="H11">
-        <v>303.937934</v>
+        <v>302.087455</v>
       </c>
       <c r="I11">
-        <v>0.261027326772798</v>
+        <v>0.29274614875843</v>
       </c>
       <c r="J11">
-        <v>0.2610273267727979</v>
+        <v>0.2927461487584301</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,25 +1116,25 @@
         <v>2.346919</v>
       </c>
       <c r="N11">
-        <v>7.040757</v>
+        <v>7.040756999999999</v>
       </c>
       <c r="O11">
-        <v>0.1107910510156661</v>
+        <v>0.3998434758381655</v>
       </c>
       <c r="P11">
-        <v>0.1107910510156661</v>
+        <v>0.3998434758381655</v>
       </c>
       <c r="Q11">
-        <v>237.7725707084487</v>
+        <v>236.3249292670483</v>
       </c>
       <c r="R11">
-        <v>2139.953136376038</v>
+        <v>2126.924363403435</v>
       </c>
       <c r="S11">
-        <v>0.028919491876968</v>
+        <v>0.1170526376578073</v>
       </c>
       <c r="T11">
-        <v>0.028919491876968</v>
+        <v>0.1170526376578074</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>101.3126446666667</v>
+        <v>100.6958183333333</v>
       </c>
       <c r="H12">
-        <v>303.937934</v>
+        <v>302.087455</v>
       </c>
       <c r="I12">
-        <v>0.261027326772798</v>
+        <v>0.29274614875843</v>
       </c>
       <c r="J12">
-        <v>0.2610273267727979</v>
+        <v>0.2927461487584301</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.330408333333333</v>
+        <v>0.8927443333333333</v>
       </c>
       <c r="N12">
-        <v>3.991225</v>
+        <v>2.678233</v>
       </c>
       <c r="O12">
-        <v>0.06280461214468869</v>
+        <v>0.152096428242656</v>
       </c>
       <c r="P12">
-        <v>0.06280461214468869</v>
+        <v>0.1520964282426559</v>
       </c>
       <c r="Q12">
-        <v>134.7871867365723</v>
+        <v>89.89562120744611</v>
       </c>
       <c r="R12">
-        <v>1213.08468062915</v>
+        <v>809.060590867015</v>
       </c>
       <c r="S12">
-        <v>0.01639372001713049</v>
+        <v>0.04452564360795044</v>
       </c>
       <c r="T12">
-        <v>0.01639372001713049</v>
+        <v>0.04452564360795044</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>101.3126446666667</v>
+        <v>100.6958183333333</v>
       </c>
       <c r="H13">
-        <v>303.937934</v>
+        <v>302.087455</v>
       </c>
       <c r="I13">
-        <v>0.261027326772798</v>
+        <v>0.29274614875843</v>
       </c>
       <c r="J13">
-        <v>0.2610273267727979</v>
+        <v>0.2927461487584301</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.811587333333334</v>
+        <v>1.158022666666667</v>
       </c>
       <c r="N13">
-        <v>11.434762</v>
+        <v>3.474068</v>
       </c>
       <c r="O13">
-        <v>0.1799336775994399</v>
+        <v>0.1972917719526671</v>
       </c>
       <c r="P13">
-        <v>0.17993367759944</v>
+        <v>0.197291771952667</v>
       </c>
       <c r="Q13">
-        <v>386.1619931179677</v>
+        <v>116.6080400685489</v>
       </c>
       <c r="R13">
-        <v>3475.457938061709</v>
+        <v>1049.47236061694</v>
       </c>
       <c r="S13">
-        <v>0.04696760686018029</v>
+        <v>0.05775640642086972</v>
       </c>
       <c r="T13">
-        <v>0.0469676068601803</v>
+        <v>0.05775640642086972</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>85.147481</v>
+        <v>74.032918</v>
       </c>
       <c r="H14">
-        <v>255.442443</v>
+        <v>222.098754</v>
       </c>
       <c r="I14">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959248</v>
       </c>
       <c r="J14">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959249</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>13.69437566666667</v>
+        <v>1.471908333333333</v>
       </c>
       <c r="N14">
-        <v>41.083127</v>
+        <v>4.415725</v>
       </c>
       <c r="O14">
-        <v>0.6464706592402051</v>
+        <v>0.2507683239665115</v>
       </c>
       <c r="P14">
-        <v>0.6464706592402053</v>
+        <v>0.2507683239665115</v>
       </c>
       <c r="Q14">
-        <v>1166.041591884362</v>
+        <v>108.9696689451833</v>
       </c>
       <c r="R14">
-        <v>10494.37432695926</v>
+        <v>980.72702050665</v>
       </c>
       <c r="S14">
-        <v>0.1418217847594161</v>
+        <v>0.05397309210793558</v>
       </c>
       <c r="T14">
-        <v>0.1418217847594161</v>
+        <v>0.0539730921079356</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>85.147481</v>
+        <v>74.032918</v>
       </c>
       <c r="H15">
-        <v>255.442443</v>
+        <v>222.098754</v>
       </c>
       <c r="I15">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959248</v>
       </c>
       <c r="J15">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959249</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,25 +1364,25 @@
         <v>2.346919</v>
       </c>
       <c r="N15">
-        <v>7.040757</v>
+        <v>7.040756999999999</v>
       </c>
       <c r="O15">
-        <v>0.1107910510156661</v>
+        <v>0.3998434758381655</v>
       </c>
       <c r="P15">
-        <v>0.1107910510156661</v>
+        <v>0.3998434758381655</v>
       </c>
       <c r="Q15">
-        <v>199.834240961039</v>
+        <v>173.749261879642</v>
       </c>
       <c r="R15">
-        <v>1798.508168649351</v>
+        <v>1563.743356916778</v>
       </c>
       <c r="S15">
-        <v>0.02430517822553653</v>
+        <v>0.08605867124211589</v>
       </c>
       <c r="T15">
-        <v>0.02430517822553654</v>
+        <v>0.08605867124211591</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>85.147481</v>
+        <v>74.032918</v>
       </c>
       <c r="H16">
-        <v>255.442443</v>
+        <v>222.098754</v>
       </c>
       <c r="I16">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959248</v>
       </c>
       <c r="J16">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959249</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.330408333333333</v>
+        <v>0.8927443333333333</v>
       </c>
       <c r="N16">
-        <v>3.991225</v>
+        <v>2.678233</v>
       </c>
       <c r="O16">
-        <v>0.06280461214468869</v>
+        <v>0.152096428242656</v>
       </c>
       <c r="P16">
-        <v>0.06280461214468869</v>
+        <v>0.1520964282426559</v>
       </c>
       <c r="Q16">
-        <v>113.2809182847417</v>
+        <v>66.09246802463132</v>
       </c>
       <c r="R16">
-        <v>1019.528264562675</v>
+        <v>594.8322122216819</v>
       </c>
       <c r="S16">
-        <v>0.01377798366897438</v>
+        <v>0.03273585116725173</v>
       </c>
       <c r="T16">
-        <v>0.01377798366897438</v>
+        <v>0.03273585116725173</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>85.147481</v>
+        <v>74.032918</v>
       </c>
       <c r="H17">
-        <v>255.442443</v>
+        <v>222.098754</v>
       </c>
       <c r="I17">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959248</v>
       </c>
       <c r="J17">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959249</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.811587333333334</v>
+        <v>1.158022666666667</v>
       </c>
       <c r="N17">
-        <v>11.434762</v>
+        <v>3.474068</v>
       </c>
       <c r="O17">
-        <v>0.1799336775994399</v>
+        <v>0.1972917719526671</v>
       </c>
       <c r="P17">
-        <v>0.17993367759944</v>
+        <v>0.197291771952667</v>
       </c>
       <c r="Q17">
-        <v>324.5470600448407</v>
+        <v>85.73179712347466</v>
       </c>
       <c r="R17">
-        <v>2920.923540403566</v>
+        <v>771.5861741112719</v>
       </c>
       <c r="S17">
-        <v>0.03947358620338588</v>
+        <v>0.04246328567862165</v>
       </c>
       <c r="T17">
-        <v>0.03947358620338589</v>
+        <v>0.04246328567862165</v>
       </c>
     </row>
   </sheetData>
